--- a/SuppXLS/Scen_SubAnnual_Data.xlsx
+++ b/SuppXLS/Scen_SubAnnual_Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t xml:space="preserve">~TFM_INS</t>
   </si>
@@ -109,10 +109,55 @@
     <t xml:space="preserve">IE-MN</t>
   </si>
   <si>
-    <t xml:space="preserve">AAA</t>
+    <t xml:space="preserve">AuDayD</t>
   </si>
   <si>
     <t xml:space="preserve">YRFR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AuDayE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AuDayN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AuDayP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpDayD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpDayE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpDayN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpDayP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SuDayD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SuDayE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SuDayN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SuDayP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WiDayD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WiDayE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WiDayN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WiDayP</t>
   </si>
   <si>
     <t xml:space="preserve">Pset_PN</t>
@@ -205,8 +250,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="timeslices" displayName="timeslices" ref="B2:AE3" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="B2:AE3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="timeslices" displayName="timeslices" ref="B2:AE18" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="B2:AE18"/>
   <tableColumns count="30">
     <tableColumn id="1" name="TimeSlice"/>
     <tableColumn id="2" name="Attribute"/>
@@ -244,8 +289,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="elc_af" displayName="elc_af" ref="B2:F9" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="B2:F9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="elc_af" displayName="elc_af" ref="B2:F114" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="B2:F114"/>
   <tableColumns count="5">
     <tableColumn id="1" name="TimeSlice"/>
     <tableColumn id="2" name="Attribute"/>
@@ -258,8 +303,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="tra_dem" displayName="tra_dem" ref="B2:AG3" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="B2:AG3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="tra_dem" displayName="tra_dem" ref="B2:AG18" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="B2:AG18"/>
   <tableColumns count="32">
     <tableColumn id="1" name="TimeSlice"/>
     <tableColumn id="2" name="Attribute"/>
@@ -688,88 +733,1468 @@
         <v>32</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0.103881278538813</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.103881278538813</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0.103881278538813</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0.103881278538813</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0.103881278538813</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0.103881278538813</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>0.103881278538813</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0.103881278538813</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>0.103881278538813</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>0.103881278538813</v>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>0.103881278538813</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>0.103881278538813</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>0.103881278538813</v>
       </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>0.103881278538813</v>
       </c>
       <c r="R3" t="n">
-        <v>1</v>
+        <v>0.103881278538813</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>0.103881278538813</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>0.103881278538813</v>
       </c>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>0.103881278538813</v>
       </c>
       <c r="V3" t="n">
-        <v>1</v>
+        <v>0.103881278538813</v>
       </c>
       <c r="W3" t="n">
-        <v>1</v>
+        <v>0.103881278538813</v>
       </c>
       <c r="X3" t="n">
-        <v>1</v>
+        <v>0.103881278538813</v>
       </c>
       <c r="Y3" t="n">
-        <v>1</v>
+        <v>0.103881278538813</v>
       </c>
       <c r="Z3" t="n">
-        <v>1</v>
+        <v>0.103881278538813</v>
       </c>
       <c r="AA3" t="n">
-        <v>1</v>
+        <v>0.103881278538813</v>
       </c>
       <c r="AB3" t="n">
-        <v>1</v>
+        <v>0.103881278538813</v>
       </c>
       <c r="AC3" t="n">
-        <v>1</v>
+        <v>0.103881278538813</v>
       </c>
       <c r="AD3" t="n">
-        <v>1</v>
+        <v>0.103881278538813</v>
       </c>
       <c r="AE3" t="n">
-        <v>1</v>
+        <v>0.103881278538813</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0415525114155251</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0415525114155251</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0415525114155251</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0415525114155251</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0415525114155251</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0415525114155251</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0415525114155251</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.0415525114155251</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.0415525114155251</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.0415525114155251</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.0415525114155251</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.0415525114155251</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.0415525114155251</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.0415525114155251</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.0415525114155251</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.0415525114155251</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.0415525114155251</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.0415525114155251</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.0415525114155251</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.0415525114155251</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.0415525114155251</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.0415525114155251</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.0415525114155251</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.0415525114155251</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.0415525114155251</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.0415525114155251</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.0415525114155251</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.0415525114155251</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0727168949771689</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0727168949771689</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0727168949771689</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0727168949771689</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.0727168949771689</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.0727168949771689</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0727168949771689</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.0727168949771689</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.0727168949771689</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.0727168949771689</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.0727168949771689</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.0727168949771689</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.0727168949771689</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.0727168949771689</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.0727168949771689</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.0727168949771689</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.0727168949771689</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.0727168949771689</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.0727168949771689</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.0727168949771689</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.0727168949771689</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.0727168949771689</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.0727168949771689</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.0727168949771689</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.0727168949771689</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.0727168949771689</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.0727168949771689</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.0727168949771689</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0311643835616438</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0311643835616438</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0311643835616438</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0311643835616438</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.0311643835616438</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.0311643835616438</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0311643835616438</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.0311643835616438</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.0311643835616438</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.0311643835616438</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.0311643835616438</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.0311643835616438</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.0311643835616438</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.0311643835616438</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.0311643835616438</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.0311643835616438</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.0311643835616438</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.0311643835616438</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.0311643835616438</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.0311643835616438</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.0311643835616438</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.0311643835616438</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.0311643835616438</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.0311643835616438</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.0311643835616438</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.0311643835616438</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.0311643835616438</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.0311643835616438</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.105022831050228</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.105022831050228</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.105022831050228</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.105022831050228</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.105022831050228</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.105022831050228</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.105022831050228</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.105022831050228</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.105022831050228</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.105022831050228</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.105022831050228</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.105022831050228</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.105022831050228</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.105022831050228</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.105022831050228</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.105022831050228</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.105022831050228</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.105022831050228</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.105022831050228</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.105022831050228</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.105022831050228</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.105022831050228</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.105022831050228</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.105022831050228</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.105022831050228</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.105022831050228</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.105022831050228</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.105022831050228</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0420091324200913</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.0420091324200913</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.0420091324200913</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0420091324200913</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.0420091324200913</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.0420091324200913</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0420091324200913</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.0420091324200913</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.0420091324200913</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.0420091324200913</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.0420091324200913</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.0420091324200913</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.0420091324200913</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.0420091324200913</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.0420091324200913</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.0420091324200913</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.0420091324200913</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.0420091324200913</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.0420091324200913</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.0420091324200913</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.0420091324200913</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.0420091324200913</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.0420091324200913</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.0420091324200913</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.0420091324200913</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.0420091324200913</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.0420091324200913</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.0420091324200913</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0735159817351598</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0735159817351598</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.0735159817351598</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0735159817351598</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.0735159817351598</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.0735159817351598</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0735159817351598</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.0735159817351598</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.0735159817351598</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.0735159817351598</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.0735159817351598</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.0735159817351598</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.0735159817351598</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.0735159817351598</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.0735159817351598</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.0735159817351598</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.0735159817351598</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.0735159817351598</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.0735159817351598</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.0735159817351598</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.0735159817351598</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.0735159817351598</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.0735159817351598</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.0735159817351598</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.0735159817351598</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.0735159817351598</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.0735159817351598</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.0735159817351598</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0315068493150685</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.0315068493150685</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0315068493150685</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0315068493150685</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.0315068493150685</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.0315068493150685</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0315068493150685</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.0315068493150685</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.0315068493150685</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.0315068493150685</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.0315068493150685</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.0315068493150685</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.0315068493150685</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.0315068493150685</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.0315068493150685</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.0315068493150685</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.0315068493150685</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.0315068493150685</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.0315068493150685</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.0315068493150685</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.0315068493150685</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.0315068493150685</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.0315068493150685</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.0315068493150685</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.0315068493150685</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.0315068493150685</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.0315068493150685</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.0315068493150685</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.105022831050228</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.105022831050228</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.105022831050228</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.105022831050228</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.105022831050228</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.105022831050228</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.105022831050228</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.105022831050228</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.105022831050228</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.105022831050228</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.105022831050228</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.105022831050228</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.105022831050228</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.105022831050228</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.105022831050228</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.105022831050228</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.105022831050228</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.105022831050228</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.105022831050228</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.105022831050228</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.105022831050228</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.105022831050228</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.105022831050228</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0.105022831050228</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0.105022831050228</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.105022831050228</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.105022831050228</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0.105022831050228</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0420091324200913</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.0420091324200913</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.0420091324200913</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.0420091324200913</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.0420091324200913</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.0420091324200913</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.0420091324200913</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.0420091324200913</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.0420091324200913</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.0420091324200913</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.0420091324200913</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.0420091324200913</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.0420091324200913</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.0420091324200913</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.0420091324200913</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.0420091324200913</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.0420091324200913</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.0420091324200913</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.0420091324200913</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.0420091324200913</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.0420091324200913</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.0420091324200913</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0.0420091324200913</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0.0420091324200913</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0.0420091324200913</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0.0420091324200913</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0.0420091324200913</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0.0420091324200913</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.0735159817351598</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.0735159817351598</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.0735159817351598</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0735159817351598</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.0735159817351598</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.0735159817351598</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0735159817351598</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.0735159817351598</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.0735159817351598</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.0735159817351598</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.0735159817351598</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.0735159817351598</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.0735159817351598</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.0735159817351598</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.0735159817351598</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.0735159817351598</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.0735159817351598</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.0735159817351598</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.0735159817351598</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.0735159817351598</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.0735159817351598</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.0735159817351598</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.0735159817351598</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0.0735159817351598</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0.0735159817351598</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0.0735159817351598</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0.0735159817351598</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0.0735159817351598</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.0315068493150685</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.0315068493150685</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.0315068493150685</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.0315068493150685</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.0315068493150685</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.0315068493150685</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.0315068493150685</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.0315068493150685</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.0315068493150685</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.0315068493150685</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.0315068493150685</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.0315068493150685</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.0315068493150685</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.0315068493150685</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.0315068493150685</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.0315068493150685</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.0315068493150685</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.0315068493150685</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.0315068493150685</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.0315068493150685</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.0315068493150685</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.0315068493150685</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.0315068493150685</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0.0315068493150685</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0.0315068493150685</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0.0315068493150685</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0.0315068493150685</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0.0315068493150685</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.102739726027397</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.102739726027397</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.102739726027397</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.102739726027397</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.102739726027397</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.102739726027397</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.102739726027397</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.102739726027397</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.102739726027397</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.102739726027397</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.102739726027397</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.102739726027397</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.102739726027397</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.102739726027397</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.102739726027397</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.102739726027397</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.102739726027397</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.102739726027397</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.102739726027397</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.102739726027397</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0.102739726027397</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.102739726027397</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0.102739726027397</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0.102739726027397</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0.102739726027397</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0.102739726027397</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0.102739726027397</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0.102739726027397</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.0410958904109589</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.0410958904109589</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.0410958904109589</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.0410958904109589</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.0410958904109589</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.0410958904109589</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.0410958904109589</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.0410958904109589</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.0410958904109589</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.0410958904109589</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.0410958904109589</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.0410958904109589</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.0410958904109589</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.0410958904109589</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.0410958904109589</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.0410958904109589</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.0410958904109589</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.0410958904109589</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.0410958904109589</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.0410958904109589</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.0410958904109589</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0.0410958904109589</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.0410958904109589</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0.0410958904109589</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0.0410958904109589</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0.0410958904109589</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0.0410958904109589</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0.0410958904109589</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.0719178082191781</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.0719178082191781</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.0719178082191781</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.0719178082191781</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.0719178082191781</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.0719178082191781</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.0719178082191781</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.0719178082191781</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.0719178082191781</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.0719178082191781</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.0719178082191781</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.0719178082191781</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.0719178082191781</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.0719178082191781</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.0719178082191781</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.0719178082191781</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.0719178082191781</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.0719178082191781</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.0719178082191781</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.0719178082191781</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.0719178082191781</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.0719178082191781</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.0719178082191781</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0.0719178082191781</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0.0719178082191781</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0.0719178082191781</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0.0719178082191781</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0.0719178082191781</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.0308219178082192</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.0308219178082192</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.0308219178082192</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.0308219178082192</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.0308219178082192</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.0308219178082192</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.0308219178082192</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.0308219178082192</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.0308219178082192</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.0308219178082192</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.0308219178082192</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.0308219178082192</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.0308219178082192</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.0308219178082192</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.0308219178082192</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.0308219178082192</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.0308219178082192</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.0308219178082192</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.0308219178082192</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.0308219178082192</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0.0308219178082192</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0.0308219178082192</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0.0308219178082192</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0.0308219178082192</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0.0308219178082192</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0.0308219178082192</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0.0308219178082192</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0.0308219178082192</v>
       </c>
     </row>
   </sheetData>
@@ -802,10 +2227,10 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
         <v>3</v>
@@ -816,16 +2241,16 @@
         <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="E3" t="n">
         <v>2018</v>
       </c>
       <c r="F3" t="n">
-        <v>0.29065</v>
+        <v>0.29241</v>
       </c>
     </row>
     <row r="4">
@@ -833,101 +2258,1886 @@
         <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="E4" t="n">
         <v>2018</v>
       </c>
       <c r="F4" t="n">
-        <v>0.29065</v>
+        <v>0.29241</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="E5" t="n">
         <v>2018</v>
       </c>
       <c r="F5" t="n">
-        <v>0.28899</v>
+        <v>0.28402</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="E6" t="n">
         <v>2018</v>
       </c>
       <c r="F6" t="n">
-        <v>0.10806</v>
+        <v>0.28402</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E7" t="n">
         <v>2018</v>
       </c>
       <c r="F7" t="n">
-        <v>0.10806</v>
+        <v>0.28304</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="E8" t="n">
         <v>2018</v>
       </c>
       <c r="F8" t="n">
-        <v>0.10806</v>
+        <v>0.28304</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.27787</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.27787</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.27496</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.27496</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.2569</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.2569</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.23981</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.23981</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.253</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.253</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.24385</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.24385</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.19736</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.19736</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.19021</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.19021</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.21573</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.21573</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.40198</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.40198</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.39589</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.39589</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.41517</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.41517</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.38446</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.38446</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="s">
         <v>31</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" t="s">
+        <v>53</v>
+      </c>
+      <c r="E35" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.29271</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.31573</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" t="s">
+        <v>53</v>
+      </c>
+      <c r="E37" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.30085</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" t="s">
         <v>35</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.30571</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.25337</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40" t="s">
+        <v>53</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.26023</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" t="s">
+        <v>53</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.25231</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42" t="s">
+        <v>53</v>
+      </c>
+      <c r="E42" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.26158</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" t="s">
+        <v>50</v>
+      </c>
+      <c r="D43" t="s">
+        <v>53</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.19425</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44" t="s">
+        <v>53</v>
+      </c>
+      <c r="E44" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.20715</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" t="s">
         <v>42</v>
       </c>
-      <c r="E9" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.11887</v>
+      <c r="C45" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" t="s">
+        <v>53</v>
+      </c>
+      <c r="E45" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.17273</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46" t="s">
+        <v>53</v>
+      </c>
+      <c r="E46" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.21003</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" t="s">
+        <v>50</v>
+      </c>
+      <c r="D47" t="s">
+        <v>53</v>
+      </c>
+      <c r="E47" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.41178</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48" t="s">
+        <v>50</v>
+      </c>
+      <c r="D48" t="s">
+        <v>53</v>
+      </c>
+      <c r="E48" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.40029</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" t="s">
+        <v>50</v>
+      </c>
+      <c r="D49" t="s">
+        <v>53</v>
+      </c>
+      <c r="E49" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.42065</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" t="s">
+        <v>50</v>
+      </c>
+      <c r="D50" t="s">
+        <v>53</v>
+      </c>
+      <c r="E50" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.39913</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" t="s">
+        <v>31</v>
+      </c>
+      <c r="C51" t="s">
+        <v>50</v>
+      </c>
+      <c r="D51" t="s">
+        <v>54</v>
+      </c>
+      <c r="E51" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.19338</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" t="s">
+        <v>31</v>
+      </c>
+      <c r="C52" t="s">
+        <v>50</v>
+      </c>
+      <c r="D52" t="s">
+        <v>55</v>
+      </c>
+      <c r="E52" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.19338</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" t="s">
+        <v>31</v>
+      </c>
+      <c r="C53" t="s">
+        <v>50</v>
+      </c>
+      <c r="D53" t="s">
+        <v>56</v>
+      </c>
+      <c r="E53" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.19338</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" t="s">
+        <v>31</v>
+      </c>
+      <c r="C54" t="s">
+        <v>50</v>
+      </c>
+      <c r="D54" t="s">
+        <v>57</v>
+      </c>
+      <c r="E54" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.21272</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" t="s">
+        <v>33</v>
+      </c>
+      <c r="C55" t="s">
+        <v>50</v>
+      </c>
+      <c r="D55" t="s">
+        <v>54</v>
+      </c>
+      <c r="E55" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" t="s">
+        <v>33</v>
+      </c>
+      <c r="C56" t="s">
+        <v>50</v>
+      </c>
+      <c r="D56" t="s">
+        <v>55</v>
+      </c>
+      <c r="E56" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" t="s">
+        <v>33</v>
+      </c>
+      <c r="C57" t="s">
+        <v>50</v>
+      </c>
+      <c r="D57" t="s">
+        <v>56</v>
+      </c>
+      <c r="E57" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" t="s">
+        <v>33</v>
+      </c>
+      <c r="C58" t="s">
+        <v>50</v>
+      </c>
+      <c r="D58" t="s">
+        <v>57</v>
+      </c>
+      <c r="E58" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" t="s">
+        <v>34</v>
+      </c>
+      <c r="C59" t="s">
+        <v>50</v>
+      </c>
+      <c r="D59" t="s">
+        <v>54</v>
+      </c>
+      <c r="E59" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.00031</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" t="s">
+        <v>34</v>
+      </c>
+      <c r="C60" t="s">
+        <v>50</v>
+      </c>
+      <c r="D60" t="s">
+        <v>55</v>
+      </c>
+      <c r="E60" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.00031</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" t="s">
+        <v>34</v>
+      </c>
+      <c r="C61" t="s">
+        <v>50</v>
+      </c>
+      <c r="D61" t="s">
+        <v>56</v>
+      </c>
+      <c r="E61" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.00031</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" t="s">
+        <v>34</v>
+      </c>
+      <c r="C62" t="s">
+        <v>50</v>
+      </c>
+      <c r="D62" t="s">
+        <v>57</v>
+      </c>
+      <c r="E62" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.00034</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" t="s">
+        <v>35</v>
+      </c>
+      <c r="C63" t="s">
+        <v>50</v>
+      </c>
+      <c r="D63" t="s">
+        <v>54</v>
+      </c>
+      <c r="E63" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.01037</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" t="s">
+        <v>35</v>
+      </c>
+      <c r="C64" t="s">
+        <v>50</v>
+      </c>
+      <c r="D64" t="s">
+        <v>55</v>
+      </c>
+      <c r="E64" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.01037</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" t="s">
+        <v>35</v>
+      </c>
+      <c r="C65" t="s">
+        <v>50</v>
+      </c>
+      <c r="D65" t="s">
+        <v>56</v>
+      </c>
+      <c r="E65" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.01037</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" t="s">
+        <v>35</v>
+      </c>
+      <c r="C66" t="s">
+        <v>50</v>
+      </c>
+      <c r="D66" t="s">
+        <v>57</v>
+      </c>
+      <c r="E66" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.01141</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" t="s">
+        <v>36</v>
+      </c>
+      <c r="C67" t="s">
+        <v>50</v>
+      </c>
+      <c r="D67" t="s">
+        <v>54</v>
+      </c>
+      <c r="E67" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.32802</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" t="s">
+        <v>36</v>
+      </c>
+      <c r="C68" t="s">
+        <v>50</v>
+      </c>
+      <c r="D68" t="s">
+        <v>55</v>
+      </c>
+      <c r="E68" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.32802</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="B69" t="s">
+        <v>36</v>
+      </c>
+      <c r="C69" t="s">
+        <v>50</v>
+      </c>
+      <c r="D69" t="s">
+        <v>56</v>
+      </c>
+      <c r="E69" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.32802</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="B70" t="s">
+        <v>36</v>
+      </c>
+      <c r="C70" t="s">
+        <v>50</v>
+      </c>
+      <c r="D70" t="s">
+        <v>57</v>
+      </c>
+      <c r="E70" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.36083</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" t="s">
+        <v>37</v>
+      </c>
+      <c r="C71" t="s">
+        <v>50</v>
+      </c>
+      <c r="D71" t="s">
+        <v>54</v>
+      </c>
+      <c r="E71" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.00002</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="B72" t="s">
+        <v>37</v>
+      </c>
+      <c r="C72" t="s">
+        <v>50</v>
+      </c>
+      <c r="D72" t="s">
+        <v>55</v>
+      </c>
+      <c r="E72" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.00002</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="B73" t="s">
+        <v>37</v>
+      </c>
+      <c r="C73" t="s">
+        <v>50</v>
+      </c>
+      <c r="D73" t="s">
+        <v>56</v>
+      </c>
+      <c r="E73" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.00002</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="B74" t="s">
+        <v>37</v>
+      </c>
+      <c r="C74" t="s">
+        <v>50</v>
+      </c>
+      <c r="D74" t="s">
+        <v>57</v>
+      </c>
+      <c r="E74" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.00002</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="B75" t="s">
+        <v>38</v>
+      </c>
+      <c r="C75" t="s">
+        <v>50</v>
+      </c>
+      <c r="D75" t="s">
+        <v>54</v>
+      </c>
+      <c r="E75" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.00674</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="B76" t="s">
+        <v>38</v>
+      </c>
+      <c r="C76" t="s">
+        <v>50</v>
+      </c>
+      <c r="D76" t="s">
+        <v>55</v>
+      </c>
+      <c r="E76" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.00674</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" t="s">
+        <v>38</v>
+      </c>
+      <c r="C77" t="s">
+        <v>50</v>
+      </c>
+      <c r="D77" t="s">
+        <v>56</v>
+      </c>
+      <c r="E77" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.00674</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="B78" t="s">
+        <v>38</v>
+      </c>
+      <c r="C78" t="s">
+        <v>50</v>
+      </c>
+      <c r="D78" t="s">
+        <v>57</v>
+      </c>
+      <c r="E78" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.00742</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="B79" t="s">
+        <v>39</v>
+      </c>
+      <c r="C79" t="s">
+        <v>50</v>
+      </c>
+      <c r="D79" t="s">
+        <v>54</v>
+      </c>
+      <c r="E79" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.05617</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="B80" t="s">
+        <v>39</v>
+      </c>
+      <c r="C80" t="s">
+        <v>50</v>
+      </c>
+      <c r="D80" t="s">
+        <v>55</v>
+      </c>
+      <c r="E80" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.05617</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="B81" t="s">
+        <v>39</v>
+      </c>
+      <c r="C81" t="s">
+        <v>50</v>
+      </c>
+      <c r="D81" t="s">
+        <v>56</v>
+      </c>
+      <c r="E81" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.05617</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="B82" t="s">
+        <v>39</v>
+      </c>
+      <c r="C82" t="s">
+        <v>50</v>
+      </c>
+      <c r="D82" t="s">
+        <v>57</v>
+      </c>
+      <c r="E82" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.06179</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="B83" t="s">
+        <v>40</v>
+      </c>
+      <c r="C83" t="s">
+        <v>50</v>
+      </c>
+      <c r="D83" t="s">
+        <v>54</v>
+      </c>
+      <c r="E83" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.36981</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="B84" t="s">
+        <v>40</v>
+      </c>
+      <c r="C84" t="s">
+        <v>50</v>
+      </c>
+      <c r="D84" t="s">
+        <v>55</v>
+      </c>
+      <c r="E84" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.36981</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="B85" t="s">
+        <v>40</v>
+      </c>
+      <c r="C85" t="s">
+        <v>50</v>
+      </c>
+      <c r="D85" t="s">
+        <v>56</v>
+      </c>
+      <c r="E85" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.36981</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="B86" t="s">
+        <v>40</v>
+      </c>
+      <c r="C86" t="s">
+        <v>50</v>
+      </c>
+      <c r="D86" t="s">
+        <v>57</v>
+      </c>
+      <c r="E86" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.40679</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="B87" t="s">
+        <v>41</v>
+      </c>
+      <c r="C87" t="s">
+        <v>50</v>
+      </c>
+      <c r="D87" t="s">
+        <v>54</v>
+      </c>
+      <c r="E87" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.00023</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="B88" t="s">
+        <v>41</v>
+      </c>
+      <c r="C88" t="s">
+        <v>50</v>
+      </c>
+      <c r="D88" t="s">
+        <v>55</v>
+      </c>
+      <c r="E88" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.00023</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="B89" t="s">
+        <v>41</v>
+      </c>
+      <c r="C89" t="s">
+        <v>50</v>
+      </c>
+      <c r="D89" t="s">
+        <v>56</v>
+      </c>
+      <c r="E89" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.00023</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="B90" t="s">
+        <v>41</v>
+      </c>
+      <c r="C90" t="s">
+        <v>50</v>
+      </c>
+      <c r="D90" t="s">
+        <v>57</v>
+      </c>
+      <c r="E90" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.00025</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="B91" t="s">
+        <v>42</v>
+      </c>
+      <c r="C91" t="s">
+        <v>50</v>
+      </c>
+      <c r="D91" t="s">
+        <v>54</v>
+      </c>
+      <c r="E91" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.01442</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="B92" t="s">
+        <v>42</v>
+      </c>
+      <c r="C92" t="s">
+        <v>50</v>
+      </c>
+      <c r="D92" t="s">
+        <v>55</v>
+      </c>
+      <c r="E92" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.01442</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="B93" t="s">
+        <v>42</v>
+      </c>
+      <c r="C93" t="s">
+        <v>50</v>
+      </c>
+      <c r="D93" t="s">
+        <v>56</v>
+      </c>
+      <c r="E93" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.01442</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="B94" t="s">
+        <v>42</v>
+      </c>
+      <c r="C94" t="s">
+        <v>50</v>
+      </c>
+      <c r="D94" t="s">
+        <v>57</v>
+      </c>
+      <c r="E94" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.01586</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="B95" t="s">
+        <v>43</v>
+      </c>
+      <c r="C95" t="s">
+        <v>50</v>
+      </c>
+      <c r="D95" t="s">
+        <v>54</v>
+      </c>
+      <c r="E95" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.08732</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="B96" t="s">
+        <v>43</v>
+      </c>
+      <c r="C96" t="s">
+        <v>50</v>
+      </c>
+      <c r="D96" t="s">
+        <v>55</v>
+      </c>
+      <c r="E96" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.08732</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="B97" t="s">
+        <v>43</v>
+      </c>
+      <c r="C97" t="s">
+        <v>50</v>
+      </c>
+      <c r="D97" t="s">
+        <v>56</v>
+      </c>
+      <c r="E97" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.08732</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="B98" t="s">
+        <v>43</v>
+      </c>
+      <c r="C98" t="s">
+        <v>50</v>
+      </c>
+      <c r="D98" t="s">
+        <v>57</v>
+      </c>
+      <c r="E98" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.09605</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="B99" t="s">
+        <v>44</v>
+      </c>
+      <c r="C99" t="s">
+        <v>50</v>
+      </c>
+      <c r="D99" t="s">
+        <v>54</v>
+      </c>
+      <c r="E99" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.08026</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="B100" t="s">
+        <v>44</v>
+      </c>
+      <c r="C100" t="s">
+        <v>50</v>
+      </c>
+      <c r="D100" t="s">
+        <v>55</v>
+      </c>
+      <c r="E100" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.08026</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="B101" t="s">
+        <v>44</v>
+      </c>
+      <c r="C101" t="s">
+        <v>50</v>
+      </c>
+      <c r="D101" t="s">
+        <v>56</v>
+      </c>
+      <c r="E101" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.08026</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="B102" t="s">
+        <v>44</v>
+      </c>
+      <c r="C102" t="s">
+        <v>50</v>
+      </c>
+      <c r="D102" t="s">
+        <v>57</v>
+      </c>
+      <c r="E102" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.08828</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="B103" t="s">
+        <v>45</v>
+      </c>
+      <c r="C103" t="s">
+        <v>50</v>
+      </c>
+      <c r="D103" t="s">
+        <v>54</v>
+      </c>
+      <c r="E103" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="B104" t="s">
+        <v>45</v>
+      </c>
+      <c r="C104" t="s">
+        <v>50</v>
+      </c>
+      <c r="D104" t="s">
+        <v>55</v>
+      </c>
+      <c r="E104" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="B105" t="s">
+        <v>45</v>
+      </c>
+      <c r="C105" t="s">
+        <v>50</v>
+      </c>
+      <c r="D105" t="s">
+        <v>56</v>
+      </c>
+      <c r="E105" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="B106" t="s">
+        <v>45</v>
+      </c>
+      <c r="C106" t="s">
+        <v>50</v>
+      </c>
+      <c r="D106" t="s">
+        <v>57</v>
+      </c>
+      <c r="E106" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="B107" t="s">
+        <v>46</v>
+      </c>
+      <c r="C107" t="s">
+        <v>50</v>
+      </c>
+      <c r="D107" t="s">
+        <v>54</v>
+      </c>
+      <c r="E107" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="B108" t="s">
+        <v>46</v>
+      </c>
+      <c r="C108" t="s">
+        <v>50</v>
+      </c>
+      <c r="D108" t="s">
+        <v>55</v>
+      </c>
+      <c r="E108" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="B109" t="s">
+        <v>46</v>
+      </c>
+      <c r="C109" t="s">
+        <v>50</v>
+      </c>
+      <c r="D109" t="s">
+        <v>56</v>
+      </c>
+      <c r="E109" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="B110" t="s">
+        <v>46</v>
+      </c>
+      <c r="C110" t="s">
+        <v>50</v>
+      </c>
+      <c r="D110" t="s">
+        <v>57</v>
+      </c>
+      <c r="E110" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="B111" t="s">
+        <v>47</v>
+      </c>
+      <c r="C111" t="s">
+        <v>50</v>
+      </c>
+      <c r="D111" t="s">
+        <v>54</v>
+      </c>
+      <c r="E111" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.00022</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="B112" t="s">
+        <v>47</v>
+      </c>
+      <c r="C112" t="s">
+        <v>50</v>
+      </c>
+      <c r="D112" t="s">
+        <v>55</v>
+      </c>
+      <c r="E112" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.00022</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="B113" t="s">
+        <v>47</v>
+      </c>
+      <c r="C113" t="s">
+        <v>50</v>
+      </c>
+      <c r="D113" t="s">
+        <v>56</v>
+      </c>
+      <c r="E113" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.00022</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="B114" t="s">
+        <v>47</v>
+      </c>
+      <c r="C114" t="s">
+        <v>50</v>
+      </c>
+      <c r="D114" t="s">
+        <v>57</v>
+      </c>
+      <c r="E114" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.00024</v>
       </c>
     </row>
   </sheetData>
@@ -960,13 +4170,13 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="G2" t="s">
         <v>4</v>
@@ -1055,97 +4265,1567 @@
         <v>31</v>
       </c>
       <c r="C3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.18703</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.18366</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.18366</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.18366</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.18366</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.18366</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.18366</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.18366</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.18366</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.18366</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.18366</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.18366</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.18366</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.18366</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.18366</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.18366</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.18366</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.18366</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.18366</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.17962</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.17962</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.17962</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.17962</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.18784</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.18784</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.18784</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.18784</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.01247</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.01579</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.01579</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.01579</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.01579</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.01579</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.01579</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.01579</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.01579</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.01579</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.01579</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.01579</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.01579</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.01579</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.01579</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.01579</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.01579</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.01579</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.01579</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.01497</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.01247</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.01247</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.01247</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.01413</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.01413</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.01413</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.01413</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.00499</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.00914</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.00914</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.00914</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.00914</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.00914</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.00914</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.00914</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.00914</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.00914</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.00914</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.00914</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.00914</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.00914</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.00914</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.00914</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.00914</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.00914</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.00914</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.00748</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.00748</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.00748</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.00748</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.00706</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.00706</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.00706</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.00706</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.04489</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.04072</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.04072</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.04072</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.04072</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.04072</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.04072</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.04072</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.04072</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.04072</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.04072</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.04072</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.04072</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.04072</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.04072</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.04072</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.04072</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.04072</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.04072</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.0474</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.04989</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.04989</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.04989</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.04031</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.04031</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.04031</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.04031</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.18948</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.18618</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.18618</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.18618</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.18618</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.18618</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.18618</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.18618</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.18618</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.18618</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.18618</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.18618</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.18618</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.18618</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.18618</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.18618</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.18618</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.18618</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.18618</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.18169</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.18197</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.18197</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.18197</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.19043</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.19043</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.19043</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.19043</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.01263</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.01601</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.01601</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.01601</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.01601</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.01601</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.01601</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.01601</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.01601</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.01601</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.01601</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.01601</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.01601</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.01601</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.01601</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.01601</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.01601</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.01601</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.01601</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.01514</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.01264</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.01264</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.01264</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.01433</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.01433</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0.01433</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0.01433</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.00505</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.00927</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.00927</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.00927</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.00927</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.00927</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.00927</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.00927</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.00927</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.00927</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.00927</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.00927</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.00927</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.00927</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.00927</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.00927</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.00927</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.00927</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.00927</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.00757</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.00758</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.00758</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.00758</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.00716</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.00716</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.00716</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.00716</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.04547</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.04128</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.04128</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.04128</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.04128</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.04128</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.04128</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.04128</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.04128</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.04128</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.04128</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.04128</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.04128</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.04128</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.04128</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.04128</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.04128</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.04128</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.04128</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.04795</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.05055</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.05055</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.05055</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.04087</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.04087</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.04087</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.04087</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.18919</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.18557</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.18557</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.18557</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.18557</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.18557</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.18557</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.18557</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.18557</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.18557</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.18557</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.18557</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.18557</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.18557</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.18557</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.18557</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.18557</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.18557</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.18557</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.18252</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0.18211</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0.18211</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.18211</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.1899</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0.1899</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0.1899</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0.1899</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.01261</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.01596</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.01596</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.01596</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.01596</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.01596</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.01596</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.01596</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.01596</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.01596</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.01596</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.01596</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.01596</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.01596</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.01596</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.01596</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.01596</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.01596</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.01596</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0.01521</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0.01265</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0.01265</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0.01265</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0.01428</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0.01428</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0.01428</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0.01428</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.00505</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.00923</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.00923</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.00923</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.00923</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.00923</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.00923</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.00923</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.00923</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.00923</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.00923</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.00923</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.00923</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.00923</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.00923</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.00923</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.00923</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.00923</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.00923</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.00761</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0.00759</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0.00759</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0.00759</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0.00714</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0.00714</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0.00714</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0.00714</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.04541</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.04114</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.04114</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.04114</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.04114</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.04114</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.04114</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.04114</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.04114</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.04114</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.04114</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.04114</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.04114</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.04114</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.04114</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.04114</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.04114</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.04114</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.04114</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.04817</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0.05059</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0.05059</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0.05059</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0.04075</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0.04075</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0.04075</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0.04075</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.1843</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.18126</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.18126</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.18126</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.18126</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.18126</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.18126</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.18126</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.18126</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.18126</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.18126</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.18126</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.18126</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.18126</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.18126</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.18126</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.18126</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0.18126</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.18126</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0.17617</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0.1763</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0.1763</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0.1763</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0.18516</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0.18516</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0.18516</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0.18516</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="s">
         <v>45</v>
       </c>
-      <c r="D3" t="n">
-        <v>2018</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="C16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.01229</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.01558</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.01558</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.01558</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.01558</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.01558</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.01558</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.01558</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.01558</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.01558</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.01558</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.01558</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.01558</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.01558</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.01558</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.01558</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.01558</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.01558</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0.01558</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.01468</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0.01224</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0.01224</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0.01224</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0.01393</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0.01393</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0.01393</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0.01393</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="s">
         <v>46</v>
       </c>
-      <c r="F3" t="s">
+      <c r="C17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E17" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.00491</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.00903</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.00903</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.00903</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.00903</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.00903</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.00903</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.00903</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.00903</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.00903</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.00903</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.00903</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.00903</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.00903</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.00903</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.00903</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.00903</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.00903</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.00903</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.00734</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0.00735</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0.00735</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0.00735</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0.00697</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0.00697</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0.00697</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0.00697</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="s">
         <v>47</v>
       </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1</v>
-      </c>
-      <c r="X3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>1</v>
+      <c r="C18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E18" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.04423</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.04019</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.04019</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.04019</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.04019</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.04019</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.04019</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.04019</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.04019</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.04019</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.04019</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.04019</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.04019</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.04019</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.04019</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.04019</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.04019</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0.04019</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0.04019</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0.04649</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0.04897</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0.04897</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0.04897</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0.03974</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0.03974</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0.03974</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>0.03974</v>
       </c>
     </row>
   </sheetData>

--- a/SuppXLS/Scen_SubAnnual_Data.xlsx
+++ b/SuppXLS/Scen_SubAnnual_Data.xlsx
@@ -1,171 +1,175 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75ECEFBE-6BF3-4CEB-B506-A7B3E0F68B4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-3233" yWindow="8002" windowWidth="20716" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="TimeSlices" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="ELC_AF" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="TRA_DEM" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TimeSlices" sheetId="1" r:id="rId1"/>
+    <sheet name="ELC_AF" sheetId="2" r:id="rId2"/>
+    <sheet name="TRA_DEM" sheetId="3" r:id="rId3"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
-  <si>
-    <t xml:space="preserve">~TFM_INS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TimeSlice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attribute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AllRegions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IE-CW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IE-D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IE-KE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IE-KK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IE-LS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IE-LD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IE-LH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IE-MH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IE-OY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IE-WH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IE-WX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IE-WW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IE-CE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IE-CO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IE-KY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IE-LK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IE-TA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IE-WD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IE-G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IE-LM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IE-MO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IE-RN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IE-SO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IE-CN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IE-DL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IE-MN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YRFR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pset_PN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NCAP_AF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EPPWin_00*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EPPWin_*_ON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EPPWin_02_OF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EPPSol_01*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EPPSol_02*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COMPVELC*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EPPSol_03*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cset_set</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cset_CD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COM_FR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transport Demand*</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="47">
+  <si>
+    <t>~TFM_INS</t>
+  </si>
+  <si>
+    <t>TimeSlice</t>
+  </si>
+  <si>
+    <t>Attribute</t>
+  </si>
+  <si>
+    <t>AllRegions</t>
+  </si>
+  <si>
+    <t>IE</t>
+  </si>
+  <si>
+    <t>IE-CW</t>
+  </si>
+  <si>
+    <t>IE-D</t>
+  </si>
+  <si>
+    <t>IE-KE</t>
+  </si>
+  <si>
+    <t>IE-KK</t>
+  </si>
+  <si>
+    <t>IE-LS</t>
+  </si>
+  <si>
+    <t>IE-LD</t>
+  </si>
+  <si>
+    <t>IE-LH</t>
+  </si>
+  <si>
+    <t>IE-MH</t>
+  </si>
+  <si>
+    <t>IE-OY</t>
+  </si>
+  <si>
+    <t>IE-WH</t>
+  </si>
+  <si>
+    <t>IE-WX</t>
+  </si>
+  <si>
+    <t>IE-WW</t>
+  </si>
+  <si>
+    <t>IE-CE</t>
+  </si>
+  <si>
+    <t>IE-CO</t>
+  </si>
+  <si>
+    <t>IE-KY</t>
+  </si>
+  <si>
+    <t>IE-LK</t>
+  </si>
+  <si>
+    <t>IE-TA</t>
+  </si>
+  <si>
+    <t>IE-WD</t>
+  </si>
+  <si>
+    <t>IE-G</t>
+  </si>
+  <si>
+    <t>IE-LM</t>
+  </si>
+  <si>
+    <t>IE-MO</t>
+  </si>
+  <si>
+    <t>IE-RN</t>
+  </si>
+  <si>
+    <t>IE-SO</t>
+  </si>
+  <si>
+    <t>IE-CN</t>
+  </si>
+  <si>
+    <t>IE-DL</t>
+  </si>
+  <si>
+    <t>IE-MN</t>
+  </si>
+  <si>
+    <t>AAA</t>
+  </si>
+  <si>
+    <t>YRFR</t>
+  </si>
+  <si>
+    <t>Pset_PN</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>NCAP_AF</t>
+  </si>
+  <si>
+    <t>P-RNW-WIN-ON*</t>
+  </si>
+  <si>
+    <t>P-RNW-WIN-OF*</t>
+  </si>
+  <si>
+    <t>P-RNW-SOL-PV01</t>
+  </si>
+  <si>
+    <t>P-RNW-SOL-PV02</t>
+  </si>
+  <si>
+    <t>COMPVELC*</t>
+  </si>
+  <si>
+    <t>P-RNW-SOL-PV03</t>
+  </si>
+  <si>
+    <t>Cset_set</t>
+  </si>
+  <si>
+    <t>Cset_CD</t>
+  </si>
+  <si>
+    <t>COM_FR</t>
+  </si>
+  <si>
+    <t>DEM</t>
+  </si>
+  <si>
+    <t>Transport Demand*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -201,98 +205,107 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="timeslices" displayName="timeslices" ref="B2:AE3" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="B2:AE3"/>
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="timeslices" displayName="timeslices" ref="B2:AE3" totalsRowShown="0">
+  <autoFilter ref="B2:AE3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="30">
-    <tableColumn id="1" name="TimeSlice"/>
-    <tableColumn id="2" name="Attribute"/>
-    <tableColumn id="3" name="AllRegions"/>
-    <tableColumn id="4" name="IE"/>
-    <tableColumn id="5" name="IE-CW"/>
-    <tableColumn id="6" name="IE-D"/>
-    <tableColumn id="7" name="IE-KE"/>
-    <tableColumn id="8" name="IE-KK"/>
-    <tableColumn id="9" name="IE-LS"/>
-    <tableColumn id="10" name="IE-LD"/>
-    <tableColumn id="11" name="IE-LH"/>
-    <tableColumn id="12" name="IE-MH"/>
-    <tableColumn id="13" name="IE-OY"/>
-    <tableColumn id="14" name="IE-WH"/>
-    <tableColumn id="15" name="IE-WX"/>
-    <tableColumn id="16" name="IE-WW"/>
-    <tableColumn id="17" name="IE-CE"/>
-    <tableColumn id="18" name="IE-CO"/>
-    <tableColumn id="19" name="IE-KY"/>
-    <tableColumn id="20" name="IE-LK"/>
-    <tableColumn id="21" name="IE-TA"/>
-    <tableColumn id="22" name="IE-WD"/>
-    <tableColumn id="23" name="IE-G"/>
-    <tableColumn id="24" name="IE-LM"/>
-    <tableColumn id="25" name="IE-MO"/>
-    <tableColumn id="26" name="IE-RN"/>
-    <tableColumn id="27" name="IE-SO"/>
-    <tableColumn id="28" name="IE-CN"/>
-    <tableColumn id="29" name="IE-DL"/>
-    <tableColumn id="30" name="IE-MN"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TimeSlice"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Attribute"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="AllRegions"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="IE"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="IE-CW"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="IE-D"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="IE-KE"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="IE-KK"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="IE-LS"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="IE-LD"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="IE-LH"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="IE-MH"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="IE-OY"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="IE-WH"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="IE-WX"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="IE-WW"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="IE-CE"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="IE-CO"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="IE-KY"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="IE-LK"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="IE-TA"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="IE-WD"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="IE-G"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="IE-LM"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="IE-MO"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="IE-RN"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="IE-SO"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="IE-CN"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="IE-DL"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="IE-MN"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="elc_af" displayName="elc_af" ref="B2:F9" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="B2:F9"/>
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="elc_af" displayName="elc_af" ref="B2:F8" totalsRowShown="0">
+  <autoFilter ref="B2:F8" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="TimeSlice"/>
-    <tableColumn id="2" name="Attribute"/>
-    <tableColumn id="3" name="Pset_PN"/>
-    <tableColumn id="4" name="Year"/>
-    <tableColumn id="5" name="AllRegions"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="TimeSlice"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Attribute"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Pset_PN"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Year"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="AllRegions"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="tra_dem" displayName="tra_dem" ref="B2:AG3" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="B2:AG3"/>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="tra_dem" displayName="tra_dem" ref="B2:AG3" totalsRowShown="0">
+  <autoFilter ref="B2:AG3" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="32">
-    <tableColumn id="1" name="TimeSlice"/>
-    <tableColumn id="2" name="Attribute"/>
-    <tableColumn id="3" name="Year"/>
-    <tableColumn id="4" name="Cset_set"/>
-    <tableColumn id="5" name="Cset_CD"/>
-    <tableColumn id="6" name="IE"/>
-    <tableColumn id="7" name="IE-CW"/>
-    <tableColumn id="8" name="IE-KK"/>
-    <tableColumn id="9" name="IE-LS"/>
-    <tableColumn id="10" name="IE-LD"/>
-    <tableColumn id="11" name="IE-LH"/>
-    <tableColumn id="12" name="IE-OY"/>
-    <tableColumn id="13" name="IE-WH"/>
-    <tableColumn id="14" name="IE-WX"/>
-    <tableColumn id="15" name="IE-CE"/>
-    <tableColumn id="16" name="IE-KY"/>
-    <tableColumn id="17" name="IE-TA"/>
-    <tableColumn id="18" name="IE-LM"/>
-    <tableColumn id="19" name="IE-MO"/>
-    <tableColumn id="20" name="IE-RN"/>
-    <tableColumn id="21" name="IE-SO"/>
-    <tableColumn id="22" name="IE-CN"/>
-    <tableColumn id="23" name="IE-DL"/>
-    <tableColumn id="24" name="IE-MN"/>
-    <tableColumn id="25" name="IE-D"/>
-    <tableColumn id="26" name="IE-KE"/>
-    <tableColumn id="27" name="IE-MH"/>
-    <tableColumn id="28" name="IE-WW"/>
-    <tableColumn id="29" name="IE-CO"/>
-    <tableColumn id="30" name="IE-LK"/>
-    <tableColumn id="31" name="IE-WD"/>
-    <tableColumn id="32" name="IE-G"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="TimeSlice"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Attribute"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Year"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Cset_set"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Cset_CD"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="IE"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="IE-CW"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="IE-KK"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="IE-LS"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="IE-LD"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="IE-LH"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="IE-OY"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="IE-WH"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0200-00000E000000}" name="IE-WX"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0200-00000F000000}" name="IE-CE"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0200-000010000000}" name="IE-KY"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0200-000011000000}" name="IE-TA"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0200-000012000000}" name="IE-LM"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0200-000013000000}" name="IE-MO"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0200-000014000000}" name="IE-RN"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0200-000015000000}" name="IE-SO"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0200-000016000000}" name="IE-CN"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0200-000017000000}" name="IE-DL"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0200-000018000000}" name="IE-MN"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0200-000019000000}" name="IE-D"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0200-00001A000000}" name="IE-KE"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0200-00001B000000}" name="IE-MH"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0200-00001C000000}" name="IE-WW"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0200-00001D000000}" name="IE-CO"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0200-00001E000000}" name="IE-LK"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0200-00001F000000}" name="IE-WD"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0200-000020000000}" name="IE-G"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -576,19 +589,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:AE3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -680,121 +693,121 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>31</v>
       </c>
       <c r="C3" t="s">
         <v>32</v>
       </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1</v>
-      </c>
-      <c r="X3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE3" t="n">
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+      <c r="AA3">
+        <v>1</v>
+      </c>
+      <c r="AB3">
+        <v>1</v>
+      </c>
+      <c r="AC3">
+        <v>1</v>
+      </c>
+      <c r="AD3">
+        <v>1</v>
+      </c>
+      <c r="AE3">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -811,7 +824,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>31</v>
       </c>
@@ -821,14 +834,14 @@
       <c r="D3" t="s">
         <v>36</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>2018</v>
       </c>
-      <c r="F3" t="n">
-        <v>0.29065</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="F3">
+        <v>0.29065000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>31</v>
       </c>
@@ -838,14 +851,14 @@
       <c r="D4" t="s">
         <v>37</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>2018</v>
       </c>
-      <c r="F4" t="n">
-        <v>0.29065</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="F4">
+        <v>0.28899000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>31</v>
       </c>
@@ -855,14 +868,14 @@
       <c r="D5" t="s">
         <v>38</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>2018</v>
       </c>
-      <c r="F5" t="n">
-        <v>0.28899</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="F5">
+        <v>0.10806</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>31</v>
       </c>
@@ -872,14 +885,14 @@
       <c r="D6" t="s">
         <v>39</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>2018</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>0.10806</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>31</v>
       </c>
@@ -889,14 +902,14 @@
       <c r="D7" t="s">
         <v>40</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>2018</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>0.10806</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>31</v>
       </c>
@@ -906,53 +919,36 @@
       <c r="D8" t="s">
         <v>41</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>2018</v>
       </c>
-      <c r="F8" t="n">
-        <v>0.10806</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="F8">
         <v>0.11887</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B1:AG3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -963,10 +959,10 @@
         <v>34</v>
       </c>
       <c r="E2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" t="s">
         <v>43</v>
-      </c>
-      <c r="F2" t="s">
-        <v>44</v>
       </c>
       <c r="G2" t="s">
         <v>4</v>
@@ -1050,109 +1046,109 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>31</v>
       </c>
       <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3">
+        <v>2018</v>
+      </c>
+      <c r="E3" t="s">
         <v>45</v>
       </c>
-      <c r="D3" t="n">
-        <v>2018</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>46</v>
       </c>
-      <c r="F3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1</v>
-      </c>
-      <c r="X3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG3" t="n">
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+      <c r="AA3">
+        <v>1</v>
+      </c>
+      <c r="AB3">
+        <v>1</v>
+      </c>
+      <c r="AC3">
+        <v>1</v>
+      </c>
+      <c r="AD3">
+        <v>1</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
+      </c>
+      <c r="AF3">
+        <v>1</v>
+      </c>
+      <c r="AG3">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
--- a/SuppXLS/Scen_SubAnnual_Data.xlsx
+++ b/SuppXLS/Scen_SubAnnual_Data.xlsx
@@ -1,175 +1,168 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75ECEFBE-6BF3-4CEB-B506-A7B3E0F68B4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="-3233" yWindow="8002" windowWidth="20716" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="TimeSlices" sheetId="1" r:id="rId1"/>
-    <sheet name="ELC_AF" sheetId="2" r:id="rId2"/>
-    <sheet name="TRA_DEM" sheetId="3" r:id="rId3"/>
+    <sheet name="TimeSlices" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="PWR_AF" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="TRA_DEM" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="47">
-  <si>
-    <t>~TFM_INS</t>
-  </si>
-  <si>
-    <t>TimeSlice</t>
-  </si>
-  <si>
-    <t>Attribute</t>
-  </si>
-  <si>
-    <t>AllRegions</t>
-  </si>
-  <si>
-    <t>IE</t>
-  </si>
-  <si>
-    <t>IE-CW</t>
-  </si>
-  <si>
-    <t>IE-D</t>
-  </si>
-  <si>
-    <t>IE-KE</t>
-  </si>
-  <si>
-    <t>IE-KK</t>
-  </si>
-  <si>
-    <t>IE-LS</t>
-  </si>
-  <si>
-    <t>IE-LD</t>
-  </si>
-  <si>
-    <t>IE-LH</t>
-  </si>
-  <si>
-    <t>IE-MH</t>
-  </si>
-  <si>
-    <t>IE-OY</t>
-  </si>
-  <si>
-    <t>IE-WH</t>
-  </si>
-  <si>
-    <t>IE-WX</t>
-  </si>
-  <si>
-    <t>IE-WW</t>
-  </si>
-  <si>
-    <t>IE-CE</t>
-  </si>
-  <si>
-    <t>IE-CO</t>
-  </si>
-  <si>
-    <t>IE-KY</t>
-  </si>
-  <si>
-    <t>IE-LK</t>
-  </si>
-  <si>
-    <t>IE-TA</t>
-  </si>
-  <si>
-    <t>IE-WD</t>
-  </si>
-  <si>
-    <t>IE-G</t>
-  </si>
-  <si>
-    <t>IE-LM</t>
-  </si>
-  <si>
-    <t>IE-MO</t>
-  </si>
-  <si>
-    <t>IE-RN</t>
-  </si>
-  <si>
-    <t>IE-SO</t>
-  </si>
-  <si>
-    <t>IE-CN</t>
-  </si>
-  <si>
-    <t>IE-DL</t>
-  </si>
-  <si>
-    <t>IE-MN</t>
-  </si>
-  <si>
-    <t>AAA</t>
-  </si>
-  <si>
-    <t>YRFR</t>
-  </si>
-  <si>
-    <t>Pset_PN</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>NCAP_AF</t>
-  </si>
-  <si>
-    <t>P-RNW-WIN-ON*</t>
-  </si>
-  <si>
-    <t>P-RNW-WIN-OF*</t>
-  </si>
-  <si>
-    <t>P-RNW-SOL-PV01</t>
-  </si>
-  <si>
-    <t>P-RNW-SOL-PV02</t>
-  </si>
-  <si>
-    <t>COMPVELC*</t>
-  </si>
-  <si>
-    <t>P-RNW-SOL-PV03</t>
-  </si>
-  <si>
-    <t>Cset_set</t>
-  </si>
-  <si>
-    <t>Cset_CD</t>
-  </si>
-  <si>
-    <t>COM_FR</t>
-  </si>
-  <si>
-    <t>DEM</t>
-  </si>
-  <si>
-    <t>Transport Demand*</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+  <si>
+    <t xml:space="preserve">~TFM_INS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TimeSlice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attribute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IE-CW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IE-D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IE-KE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IE-KK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IE-LS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IE-LD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IE-LH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IE-MH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IE-OY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IE-WH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IE-WX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IE-WW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IE-CE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IE-CO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IE-KY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IE-LK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IE-TA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IE-WD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IE-G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IE-LM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IE-MO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IE-RN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IE-SO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IE-CN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IE-DL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IE-MN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AAA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YRFR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pset_PN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCAP_AF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P-RNW-WIN-ON*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P-RNW-WIN-OF*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P-RNW-SOL-*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMPVELC*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P-RNW*WAV*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P-RNW*TID*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cset_set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cset_CD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COM_FR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transport Demand*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -205,107 +198,99 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="timeslices" displayName="timeslices" ref="B2:AE3" totalsRowShown="0">
-  <autoFilter ref="B2:AE3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="timeslices" displayName="timeslices" ref="B2:AE3" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="B2:AE3"/>
   <tableColumns count="30">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TimeSlice"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Attribute"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="AllRegions"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="IE"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="IE-CW"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="IE-D"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="IE-KE"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="IE-KK"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="IE-LS"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="IE-LD"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="IE-LH"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="IE-MH"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="IE-OY"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="IE-WH"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="IE-WX"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="IE-WW"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="IE-CE"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="IE-CO"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="IE-KY"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="IE-LK"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="IE-TA"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="IE-WD"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="IE-G"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="IE-LM"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="IE-MO"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="IE-RN"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="IE-SO"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="IE-CN"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="IE-DL"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="IE-MN"/>
+    <tableColumn id="1" name="TimeSlice"/>
+    <tableColumn id="2" name="Attribute"/>
+    <tableColumn id="3" name="IE"/>
+    <tableColumn id="4" name="National"/>
+    <tableColumn id="5" name="IE-CW"/>
+    <tableColumn id="6" name="IE-D"/>
+    <tableColumn id="7" name="IE-KE"/>
+    <tableColumn id="8" name="IE-KK"/>
+    <tableColumn id="9" name="IE-LS"/>
+    <tableColumn id="10" name="IE-LD"/>
+    <tableColumn id="11" name="IE-LH"/>
+    <tableColumn id="12" name="IE-MH"/>
+    <tableColumn id="13" name="IE-OY"/>
+    <tableColumn id="14" name="IE-WH"/>
+    <tableColumn id="15" name="IE-WX"/>
+    <tableColumn id="16" name="IE-WW"/>
+    <tableColumn id="17" name="IE-CE"/>
+    <tableColumn id="18" name="IE-CO"/>
+    <tableColumn id="19" name="IE-KY"/>
+    <tableColumn id="20" name="IE-LK"/>
+    <tableColumn id="21" name="IE-TA"/>
+    <tableColumn id="22" name="IE-WD"/>
+    <tableColumn id="23" name="IE-G"/>
+    <tableColumn id="24" name="IE-LM"/>
+    <tableColumn id="25" name="IE-MO"/>
+    <tableColumn id="26" name="IE-RN"/>
+    <tableColumn id="27" name="IE-SO"/>
+    <tableColumn id="28" name="IE-CN"/>
+    <tableColumn id="29" name="IE-DL"/>
+    <tableColumn id="30" name="IE-MN"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="elc_af" displayName="elc_af" ref="B2:F8" totalsRowShown="0">
-  <autoFilter ref="B2:F8" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="TimeSlice"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Attribute"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Pset_PN"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Year"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="AllRegions"/>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="pwr_af" displayName="pwr_af" ref="B2:G8" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="B2:G8"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="TimeSlice"/>
+    <tableColumn id="2" name="Attribute"/>
+    <tableColumn id="3" name="Pset_PN"/>
+    <tableColumn id="4" name="Year"/>
+    <tableColumn id="5" name="IE"/>
+    <tableColumn id="6" name="National"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="tra_dem" displayName="tra_dem" ref="B2:AG3" totalsRowShown="0">
-  <autoFilter ref="B2:AG3" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="tra_dem" displayName="tra_dem" ref="B2:AG3" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="B2:AG3"/>
   <tableColumns count="32">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="TimeSlice"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Attribute"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Year"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Cset_set"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Cset_CD"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="IE"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="IE-CW"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="IE-KK"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="IE-LS"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="IE-LD"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="IE-LH"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="IE-OY"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="IE-WH"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0200-00000E000000}" name="IE-WX"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0200-00000F000000}" name="IE-CE"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0200-000010000000}" name="IE-KY"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0200-000011000000}" name="IE-TA"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0200-000012000000}" name="IE-LM"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0200-000013000000}" name="IE-MO"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0200-000014000000}" name="IE-RN"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0200-000015000000}" name="IE-SO"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0200-000016000000}" name="IE-CN"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0200-000017000000}" name="IE-DL"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0200-000018000000}" name="IE-MN"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0200-000019000000}" name="IE-D"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0200-00001A000000}" name="IE-KE"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0200-00001B000000}" name="IE-MH"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0200-00001C000000}" name="IE-WW"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0200-00001D000000}" name="IE-CO"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0200-00001E000000}" name="IE-LK"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0200-00001F000000}" name="IE-WD"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0200-000020000000}" name="IE-G"/>
+    <tableColumn id="1" name="TimeSlice"/>
+    <tableColumn id="2" name="Attribute"/>
+    <tableColumn id="3" name="Year"/>
+    <tableColumn id="4" name="Cset_set"/>
+    <tableColumn id="5" name="Cset_CD"/>
+    <tableColumn id="6" name="IE"/>
+    <tableColumn id="7" name="IE-CW"/>
+    <tableColumn id="8" name="IE-KK"/>
+    <tableColumn id="9" name="IE-LS"/>
+    <tableColumn id="10" name="IE-LD"/>
+    <tableColumn id="11" name="IE-LH"/>
+    <tableColumn id="12" name="IE-OY"/>
+    <tableColumn id="13" name="IE-WH"/>
+    <tableColumn id="14" name="IE-WX"/>
+    <tableColumn id="15" name="IE-CE"/>
+    <tableColumn id="16" name="IE-KY"/>
+    <tableColumn id="17" name="IE-TA"/>
+    <tableColumn id="18" name="IE-LM"/>
+    <tableColumn id="19" name="IE-MO"/>
+    <tableColumn id="20" name="IE-RN"/>
+    <tableColumn id="21" name="IE-SO"/>
+    <tableColumn id="22" name="IE-CN"/>
+    <tableColumn id="23" name="IE-DL"/>
+    <tableColumn id="24" name="IE-MN"/>
+    <tableColumn id="25" name="IE-D"/>
+    <tableColumn id="26" name="IE-KE"/>
+    <tableColumn id="27" name="IE-MH"/>
+    <tableColumn id="28" name="IE-WW"/>
+    <tableColumn id="29" name="IE-CO"/>
+    <tableColumn id="30" name="IE-LK"/>
+    <tableColumn id="31" name="IE-WD"/>
+    <tableColumn id="32" name="IE-G"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -589,19 +574,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AE3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -693,121 +678,121 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="B3" t="s">
         <v>31</v>
       </c>
       <c r="C3" t="s">
         <v>32</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-      <c r="R3">
-        <v>1</v>
-      </c>
-      <c r="S3">
-        <v>1</v>
-      </c>
-      <c r="T3">
-        <v>1</v>
-      </c>
-      <c r="U3">
-        <v>1</v>
-      </c>
-      <c r="V3">
-        <v>1</v>
-      </c>
-      <c r="W3">
-        <v>1</v>
-      </c>
-      <c r="X3">
-        <v>1</v>
-      </c>
-      <c r="Y3">
-        <v>1</v>
-      </c>
-      <c r="Z3">
-        <v>1</v>
-      </c>
-      <c r="AA3">
-        <v>1</v>
-      </c>
-      <c r="AB3">
-        <v>1</v>
-      </c>
-      <c r="AC3">
-        <v>1</v>
-      </c>
-      <c r="AD3">
-        <v>1</v>
-      </c>
-      <c r="AE3">
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE3" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:F8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -823,8 +808,11 @@
       <c r="F2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="B3" t="s">
         <v>31</v>
       </c>
@@ -834,14 +822,17 @@
       <c r="D3" t="s">
         <v>36</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>2018</v>
       </c>
-      <c r="F3">
-        <v>0.29065000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F3" t="n">
+        <v>0.2906</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.2906</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="B4" t="s">
         <v>31</v>
       </c>
@@ -851,14 +842,17 @@
       <c r="D4" t="s">
         <v>37</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>2018</v>
       </c>
-      <c r="F4">
-        <v>0.28899000000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F4" t="n">
+        <v>0.28925</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.28925</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="B5" t="s">
         <v>31</v>
       </c>
@@ -868,14 +862,17 @@
       <c r="D5" t="s">
         <v>38</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>2018</v>
       </c>
-      <c r="F5">
-        <v>0.10806</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F5" t="n">
+        <v>0.10802</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.10802</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="B6" t="s">
         <v>31</v>
       </c>
@@ -885,14 +882,17 @@
       <c r="D6" t="s">
         <v>39</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>2018</v>
       </c>
-      <c r="F6">
-        <v>0.10806</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F6" t="n">
+        <v>0.10802</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.10802</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="B7" t="s">
         <v>31</v>
       </c>
@@ -902,14 +902,17 @@
       <c r="D7" t="s">
         <v>40</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>2018</v>
       </c>
-      <c r="F7">
-        <v>0.10806</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F7" t="n">
+        <v>0.4122</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.4122</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="B8" t="s">
         <v>31</v>
       </c>
@@ -919,36 +922,39 @@
       <c r="D8" t="s">
         <v>41</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>2018</v>
       </c>
-      <c r="F8">
-        <v>0.11887</v>
+      <c r="F8" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B1:AG3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -965,7 +971,7 @@
         <v>43</v>
       </c>
       <c r="G2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H2" t="s">
         <v>5</v>
@@ -1046,14 +1052,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="B3" t="s">
         <v>31</v>
       </c>
       <c r="C3" t="s">
         <v>44</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>2018</v>
       </c>
       <c r="E3" t="s">
@@ -1062,93 +1068,93 @@
       <c r="F3" t="s">
         <v>46</v>
       </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-      <c r="R3">
-        <v>1</v>
-      </c>
-      <c r="S3">
-        <v>1</v>
-      </c>
-      <c r="T3">
-        <v>1</v>
-      </c>
-      <c r="U3">
-        <v>1</v>
-      </c>
-      <c r="V3">
-        <v>1</v>
-      </c>
-      <c r="W3">
-        <v>1</v>
-      </c>
-      <c r="X3">
-        <v>1</v>
-      </c>
-      <c r="Y3">
-        <v>1</v>
-      </c>
-      <c r="Z3">
-        <v>1</v>
-      </c>
-      <c r="AA3">
-        <v>1</v>
-      </c>
-      <c r="AB3">
-        <v>1</v>
-      </c>
-      <c r="AC3">
-        <v>1</v>
-      </c>
-      <c r="AD3">
-        <v>1</v>
-      </c>
-      <c r="AE3">
-        <v>1</v>
-      </c>
-      <c r="AF3">
-        <v>1</v>
-      </c>
-      <c r="AG3">
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG3" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>